--- a/biology/Virologie/Glissement_antigénique/Glissement_antigénique.xlsx
+++ b/biology/Virologie/Glissement_antigénique/Glissement_antigénique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Glissement_antig%C3%A9nique</t>
+          <t>Glissement_antigénique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">En virologie, on entend par glissement antigénique une ou plusieurs mutations ponctuelles du génome viral.
 Dans le cas de la grippe, il s'agit de mutations peu importantes, qui peuvent s'ajouter progressivement les unes aux autres, mais sans changer les caractéristiques antigéniques des protéines Ha ou Na. Il n'est donc pas nécessaire de renommer le sous-type de Ha (exemple H1) ou de Na (exemple N1).
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Glissement_antig%C3%A9nique</t>
+          <t>Glissement_antigénique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Liens internes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Grippe aviaire
  Portail de la virologie   Portail de la médecine                    </t>
